--- a/Manual Testing/Manual_TestCase_Sample.xlsx
+++ b/Manual Testing/Manual_TestCase_Sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Sathish Notes\Manual Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\New folder (3)\Sathish Notes\Manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8CF7E7-7DE9-4E35-87AF-C0915BA19F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A431489E-3D9A-4C31-9B1A-742DA2ABAE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -403,24 +403,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,7 +790,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,22 +843,22 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -871,20 +870,20 @@
       <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
@@ -894,16 +893,16 @@
       <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="5" t="s">
         <v>12</v>
       </c>
@@ -913,16 +912,16 @@
       <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="11"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
@@ -932,16 +931,16 @@
       <c r="I5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="11"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="5" t="s">
         <v>14</v>
       </c>
@@ -951,16 +950,16 @@
       <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="11"/>
       <c r="G7" s="5" t="s">
         <v>15</v>
       </c>
@@ -970,24 +969,24 @@
       <c r="I7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -999,20 +998,20 @@
       <c r="I8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="5" t="s">
         <v>40</v>
       </c>
@@ -1022,16 +1021,16 @@
       <c r="I9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="5" t="s">
         <v>42</v>
       </c>
@@ -1041,16 +1040,16 @@
       <c r="I10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
@@ -1060,16 +1059,16 @@
       <c r="I11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1079,16 +1078,16 @@
       <c r="I12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="5" t="s">
         <v>40</v>
       </c>
@@ -1098,16 +1097,16 @@
       <c r="I13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="5" t="s">
         <v>42</v>
       </c>
@@ -1117,16 +1116,16 @@
       <c r="I14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1136,16 +1135,16 @@
       <c r="I15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="5" t="s">
         <v>46</v>
       </c>
@@ -1155,16 +1154,16 @@
       <c r="I16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="5" t="s">
         <v>40</v>
       </c>
@@ -1172,16 +1171,16 @@
         <v>41</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="5" t="s">
         <v>42</v>
       </c>
@@ -1189,16 +1188,16 @@
         <v>43</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="5" t="s">
         <v>26</v>
       </c>
@@ -1208,8 +1207,8 @@
       <c r="I19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1280,7 +1279,7 @@
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1288,7 +1287,7 @@
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1296,7 +1295,7 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6" t="s">
         <v>49</v>
       </c>
@@ -1308,7 +1307,7 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -1316,17 +1315,17 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1334,17 +1333,17 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="6"/>
@@ -1354,7 +1353,7 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1362,7 +1361,7 @@
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1370,7 +1369,7 @@
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1378,7 +1377,7 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1386,7 +1385,7 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1394,7 +1393,7 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>

--- a/Manual Testing/Manual_TestCase_Sample.xlsx
+++ b/Manual Testing/Manual_TestCase_Sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\New folder (3)\Sathish Notes\Manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A431489E-3D9A-4C31-9B1A-742DA2ABAE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F477037-2CC5-44BC-A4B0-6D3A0E3FBD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Tc No</t>
   </si>
@@ -467,9 +467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -507,9 +507,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,26 +542,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -594,26 +577,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,7 +756,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1133,7 +1099,7 @@
         <v>27</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
@@ -1170,7 +1136,9 @@
       <c r="H17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
@@ -1187,7 +1155,9 @@
       <c r="H18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
     </row>

--- a/Manual Testing/Manual_TestCase_Sample.xlsx
+++ b/Manual Testing/Manual_TestCase_Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\New folder (3)\Sathish Notes\Manual Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\New folder\New folder (3)\Sathish Notes\Manual Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F477037-2CC5-44BC-A4B0-6D3A0E3FBD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E72F2A5-CF41-42A5-8CCE-9F0206511E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1980" yWindow="468" windowWidth="18612" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -756,7 +756,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="K8" sqref="K8:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
